--- a/Code/Results/Cases/Case_4_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.8181542619776</v>
+        <v>15.62068945992989</v>
       </c>
       <c r="C2">
-        <v>19.25297726307144</v>
+        <v>18.44807086640716</v>
       </c>
       <c r="D2">
-        <v>12.07278744326067</v>
+        <v>15.49919720907028</v>
       </c>
       <c r="E2">
-        <v>13.07021351428653</v>
+        <v>16.97211816502823</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.163474928838721</v>
+        <v>3.815075401916696</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>66.13994048946836</v>
+        <v>53.53622640527481</v>
       </c>
       <c r="J2">
-        <v>5.977531913296177</v>
+        <v>9.739729812649351</v>
       </c>
       <c r="K2">
-        <v>13.93262374170251</v>
+        <v>18.8075060075755</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.13785474282049</v>
+        <v>15.69083141230107</v>
       </c>
       <c r="C3">
-        <v>18.18595200339552</v>
+        <v>18.19091245392739</v>
       </c>
       <c r="D3">
-        <v>11.59469713587891</v>
+        <v>15.45990632205511</v>
       </c>
       <c r="E3">
-        <v>12.56440595106219</v>
+        <v>16.93466489763113</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.178344354777707</v>
+        <v>3.819641744356343</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>62.52571259960499</v>
+        <v>52.2121847377158</v>
       </c>
       <c r="J3">
-        <v>5.912562244228407</v>
+        <v>9.755754977490245</v>
       </c>
       <c r="K3">
-        <v>13.32330002121781</v>
+        <v>18.80905440865423</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.813612749829769</v>
+        <v>15.74179337013751</v>
       </c>
       <c r="C4">
-        <v>17.5175972615692</v>
+        <v>18.03497958851263</v>
       </c>
       <c r="D4">
-        <v>11.30463622805486</v>
+        <v>15.43947277559551</v>
       </c>
       <c r="E4">
-        <v>12.25831487046191</v>
+        <v>16.91572328343193</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.18757970515804</v>
+        <v>3.822582002164648</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60.24292258137417</v>
+        <v>51.37963797142439</v>
       </c>
       <c r="J4">
-        <v>5.876861931443058</v>
+        <v>9.767163624891609</v>
       </c>
       <c r="K4">
-        <v>12.95847703846089</v>
+        <v>18.81658669937464</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.685435346020926</v>
+        <v>15.76452835703656</v>
       </c>
       <c r="C5">
-        <v>17.24202602711146</v>
+        <v>17.97199442045404</v>
       </c>
       <c r="D5">
-        <v>11.18735422749935</v>
+        <v>15.43207723706962</v>
       </c>
       <c r="E5">
-        <v>12.13474263876454</v>
+        <v>16.90902644637945</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.191375983054863</v>
+        <v>3.823814668618487</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>59.29668209456504</v>
+        <v>51.03575159112155</v>
       </c>
       <c r="J5">
-        <v>5.863319683336153</v>
+        <v>9.772206775247309</v>
       </c>
       <c r="K5">
-        <v>12.81219033852825</v>
+        <v>18.82130614211048</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.664392019037125</v>
+        <v>15.76842179295386</v>
       </c>
       <c r="C6">
-        <v>17.19607823918134</v>
+        <v>17.96157140660948</v>
       </c>
       <c r="D6">
-        <v>11.16793692183725</v>
+        <v>15.43090553441075</v>
       </c>
       <c r="E6">
-        <v>12.11429529736339</v>
+        <v>16.90797622098617</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.192008503640507</v>
+        <v>3.824021439652549</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>59.13859837777656</v>
+        <v>50.97837999158762</v>
       </c>
       <c r="J6">
-        <v>5.861130415193765</v>
+        <v>9.773067968735061</v>
       </c>
       <c r="K6">
-        <v>12.7880452374905</v>
+        <v>18.82218928461571</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.811868024545433</v>
+        <v>15.74209203917855</v>
       </c>
       <c r="C7">
-        <v>17.51389361840065</v>
+        <v>18.03412780106391</v>
       </c>
       <c r="D7">
-        <v>11.30305072214124</v>
+        <v>15.43936926253708</v>
       </c>
       <c r="E7">
-        <v>12.25664355961833</v>
+        <v>16.91562882691037</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.187630762490561</v>
+        <v>3.822598486481352</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.23022581010359</v>
+        <v>51.37501847433804</v>
       </c>
       <c r="J7">
-        <v>5.876675284100386</v>
+        <v>9.767230043877241</v>
       </c>
       <c r="K7">
-        <v>12.95649444207008</v>
+        <v>18.81664367427357</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.52311434233925</v>
+        <v>15.64322556626647</v>
       </c>
       <c r="C8">
-        <v>18.88784702855113</v>
+        <v>18.35903442450615</v>
       </c>
       <c r="D8">
-        <v>11.90723553553295</v>
+        <v>15.4848857354796</v>
       </c>
       <c r="E8">
-        <v>12.89489550662998</v>
+        <v>16.95836441313256</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.168584025652732</v>
+        <v>3.816621643177129</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>64.90691214124466</v>
+        <v>53.0839389111492</v>
       </c>
       <c r="J8">
-        <v>5.954230416689754</v>
+        <v>9.744929303187858</v>
       </c>
       <c r="K8">
-        <v>13.72061139478461</v>
+        <v>18.80667125764428</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.62356843738996</v>
+        <v>15.51273517221979</v>
       </c>
       <c r="C9">
-        <v>21.47685325296544</v>
+        <v>19.00886418321134</v>
       </c>
       <c r="D9">
-        <v>13.11944726767684</v>
+        <v>15.60325605605296</v>
       </c>
       <c r="E9">
-        <v>14.18210816891882</v>
+        <v>17.07419717179128</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.131743583022514</v>
+        <v>3.805976751331427</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.58318105029863</v>
+        <v>56.26726507193784</v>
       </c>
       <c r="J9">
-        <v>6.141969373144034</v>
+        <v>9.713671445488929</v>
       </c>
       <c r="K9">
-        <v>15.29341860783448</v>
+        <v>18.83950364545992</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.13793328671621</v>
+        <v>15.45646574007272</v>
       </c>
       <c r="C10">
-        <v>23.32039136136386</v>
+        <v>19.49015122788628</v>
       </c>
       <c r="D10">
-        <v>14.02946881324559</v>
+        <v>15.70768026741745</v>
       </c>
       <c r="E10">
-        <v>15.15290727969745</v>
+        <v>17.17857422509169</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.10444898746808</v>
+        <v>3.798801274727817</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.68732566516499</v>
+        <v>58.48837945178165</v>
       </c>
       <c r="J10">
-        <v>6.305477646837508</v>
+        <v>9.698342001938389</v>
       </c>
       <c r="K10">
-        <v>16.82776825016028</v>
+        <v>18.89570583297352</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.82617932807722</v>
+        <v>15.43965048201046</v>
       </c>
       <c r="C11">
-        <v>24.1495187465197</v>
+        <v>19.70912537892671</v>
       </c>
       <c r="D11">
-        <v>14.44932746658884</v>
+        <v>15.75889601959027</v>
       </c>
       <c r="E11">
-        <v>15.60187662406573</v>
+        <v>17.2301707506362</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.091831614770064</v>
+        <v>3.795674841579951</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.41773105809511</v>
+        <v>59.47042043236833</v>
       </c>
       <c r="J11">
-        <v>6.386468982622135</v>
+        <v>9.693032209360785</v>
       </c>
       <c r="K11">
-        <v>17.57387860132583</v>
+        <v>18.92824135224922</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.08733527092185</v>
+        <v>15.43455913759073</v>
       </c>
       <c r="C12">
-        <v>24.46253523978072</v>
+        <v>19.79198359556193</v>
       </c>
       <c r="D12">
-        <v>14.60939074279724</v>
+        <v>15.77881574409916</v>
       </c>
       <c r="E12">
-        <v>15.77320094487408</v>
+        <v>17.25029304949333</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.08700911059444</v>
+        <v>3.794510572225745</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.44642840929566</v>
+        <v>59.83800395372939</v>
       </c>
       <c r="J12">
-        <v>6.41819844401912</v>
+        <v>9.691261148476142</v>
       </c>
       <c r="K12">
-        <v>17.85552592421507</v>
+        <v>18.94156155901364</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.03105536217596</v>
+        <v>15.43559868946393</v>
       </c>
       <c r="C13">
-        <v>24.39515602201191</v>
+        <v>19.77414243295896</v>
       </c>
       <c r="D13">
-        <v>14.57486605355614</v>
+        <v>15.77450244944952</v>
       </c>
       <c r="E13">
-        <v>15.73623990352833</v>
+        <v>17.24593352211513</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.088049990887156</v>
+        <v>3.794760447415964</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.2250864345027</v>
+        <v>59.75903249189793</v>
       </c>
       <c r="J13">
-        <v>6.411315810153971</v>
+        <v>9.691631913927544</v>
       </c>
       <c r="K13">
-        <v>17.79489697529531</v>
+        <v>18.93864840506705</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.84764998342272</v>
+        <v>15.43920596438345</v>
       </c>
       <c r="C14">
-        <v>24.17528711484891</v>
+        <v>19.71594380784711</v>
       </c>
       <c r="D14">
-        <v>14.46247288536812</v>
+        <v>15.76052434815777</v>
       </c>
       <c r="E14">
-        <v>15.61594355113674</v>
+        <v>17.23181457209483</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.091435859367667</v>
+        <v>3.795578663693456</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.50245819850257</v>
+        <v>59.50074898250226</v>
       </c>
       <c r="J14">
-        <v>6.38905743571809</v>
+        <v>9.69288169814123</v>
       </c>
       <c r="K14">
-        <v>17.59706390615947</v>
+        <v>18.92931719679597</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.73539938311395</v>
+        <v>15.44158210266124</v>
       </c>
       <c r="C15">
-        <v>24.0405010987193</v>
+        <v>19.68028535237347</v>
       </c>
       <c r="D15">
-        <v>14.39377657913714</v>
+        <v>15.75203051956144</v>
       </c>
       <c r="E15">
-        <v>15.54243818870099</v>
+        <v>17.22324208810355</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.093503475374118</v>
+        <v>3.796082398075858</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.0591931595514</v>
+        <v>59.3419775565697</v>
       </c>
       <c r="J15">
-        <v>6.37556519123671</v>
+        <v>9.693678446955403</v>
       </c>
       <c r="K15">
-        <v>17.47578919210034</v>
+        <v>18.92373165863147</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.09299179341503</v>
+        <v>15.45774254625863</v>
       </c>
       <c r="C16">
-        <v>23.26604671982837</v>
+        <v>19.47583563515181</v>
       </c>
       <c r="D16">
-        <v>14.00216588187236</v>
+        <v>15.70440720257568</v>
       </c>
       <c r="E16">
-        <v>15.12373346385762</v>
+        <v>17.17528441735964</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.105268249379468</v>
+        <v>3.799008352072188</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.50806652404478</v>
+        <v>58.42361122646348</v>
       </c>
       <c r="J16">
-        <v>6.30032652458858</v>
+        <v>9.698722522526092</v>
       </c>
       <c r="K16">
-        <v>16.778849400885</v>
+        <v>18.89371961883971</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.69912847172918</v>
+        <v>15.46991565824714</v>
       </c>
       <c r="C17">
-        <v>22.7887601214654</v>
+        <v>19.35037259837198</v>
       </c>
       <c r="D17">
-        <v>13.76356766537426</v>
+        <v>15.6761369943233</v>
       </c>
       <c r="E17">
-        <v>14.86890539395933</v>
+        <v>17.14691251753719</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.112423889298857</v>
+        <v>3.800838490176573</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.93204298029919</v>
+        <v>57.85280051917253</v>
       </c>
       <c r="J17">
-        <v>6.255934097986528</v>
+        <v>9.702243307970216</v>
       </c>
       <c r="K17">
-        <v>16.34905836917831</v>
+        <v>18.87709184167425</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.472482330866</v>
+        <v>15.47774318957311</v>
       </c>
       <c r="C18">
-        <v>22.51331058629709</v>
+        <v>19.27821674395109</v>
       </c>
       <c r="D18">
-        <v>13.6268682094998</v>
+        <v>15.660226730031</v>
       </c>
       <c r="E18">
-        <v>14.72300658544829</v>
+        <v>17.13098159304655</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.116521814336624</v>
+        <v>3.801904110450415</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.02108202041076</v>
+        <v>57.52182809256835</v>
       </c>
       <c r="J18">
-        <v>6.231015294348793</v>
+        <v>9.704424939547925</v>
       </c>
       <c r="K18">
-        <v>16.10085230246567</v>
+        <v>18.86818416151935</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.39570893411977</v>
+        <v>15.48053487396531</v>
       </c>
       <c r="C19">
-        <v>22.41987853097895</v>
+        <v>19.25378932561111</v>
       </c>
       <c r="D19">
-        <v>13.58067062733797</v>
+        <v>15.65490014654833</v>
       </c>
       <c r="E19">
-        <v>14.67371685742589</v>
+        <v>17.12565449428308</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.117906670717558</v>
+        <v>3.802267144257793</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.71184068526247</v>
+        <v>57.40931705633777</v>
       </c>
       <c r="J19">
-        <v>6.222680790378872</v>
+        <v>9.705190480021479</v>
       </c>
       <c r="K19">
-        <v>16.01662643128415</v>
+        <v>18.86528092287064</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.74106285502266</v>
+        <v>15.46853423333499</v>
       </c>
       <c r="C20">
-        <v>22.83966147361785</v>
+        <v>19.36372810537557</v>
       </c>
       <c r="D20">
-        <v>13.78891001707175</v>
+        <v>15.67911023993459</v>
       </c>
       <c r="E20">
-        <v>14.89596123337422</v>
+        <v>17.14989266900694</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.111664106151061</v>
+        <v>3.800642327342259</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.10026731915141</v>
+        <v>57.91384093458307</v>
       </c>
       <c r="J20">
-        <v>6.260595424166016</v>
+        <v>9.701852306929945</v>
       </c>
       <c r="K20">
-        <v>16.39491025046444</v>
+        <v>18.87879399795017</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.90150038991275</v>
+        <v>15.43811168343516</v>
       </c>
       <c r="C21">
-        <v>24.23988992589196</v>
+        <v>19.73304038107006</v>
       </c>
       <c r="D21">
-        <v>14.49545416400757</v>
+        <v>15.7646158666362</v>
       </c>
       <c r="E21">
-        <v>15.65123948366442</v>
+        <v>17.23594587267248</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.090442698825169</v>
+        <v>3.795337801925462</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>82.71484071327274</v>
+        <v>59.57673128180143</v>
       </c>
       <c r="J21">
-        <v>6.395565510702325</v>
+        <v>9.692508099356974</v>
       </c>
       <c r="K21">
-        <v>17.65519110354827</v>
+        <v>18.93203089316607</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.66342478506649</v>
+        <v>15.42567291850795</v>
       </c>
       <c r="C22">
-        <v>25.14974336482615</v>
+        <v>19.97401278945157</v>
       </c>
       <c r="D22">
-        <v>14.96364042347577</v>
+        <v>15.82355686751295</v>
       </c>
       <c r="E22">
-        <v>16.15267957173814</v>
+        <v>17.29558526540625</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.076303627917685</v>
+        <v>3.791985407035636</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.70110861095894</v>
+        <v>60.63840995857055</v>
       </c>
       <c r="J22">
-        <v>6.490022556227171</v>
+        <v>9.687798095062915</v>
       </c>
       <c r="K22">
-        <v>18.47405166460217</v>
+        <v>18.97264925062665</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25620095826863</v>
+        <v>15.43162649356003</v>
       </c>
       <c r="C23">
-        <v>24.66444696026763</v>
+        <v>19.84545919271981</v>
       </c>
       <c r="D23">
-        <v>14.71307518602074</v>
+        <v>15.79182212454638</v>
       </c>
       <c r="E23">
-        <v>15.88422644181366</v>
+        <v>17.2634464544252</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.083880670223145</v>
+        <v>3.7937642275455</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.10941224143907</v>
+        <v>60.07413685506896</v>
       </c>
       <c r="J23">
-        <v>6.43899497647326</v>
+        <v>9.69018396614282</v>
       </c>
       <c r="K23">
-        <v>18.03722190985582</v>
+        <v>18.95043864439678</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.72210501604396</v>
+        <v>15.46915619427085</v>
       </c>
       <c r="C24">
-        <v>22.81665227549663</v>
+        <v>19.35769015489709</v>
       </c>
       <c r="D24">
-        <v>13.77745127983243</v>
+        <v>15.67776496766912</v>
       </c>
       <c r="E24">
-        <v>14.88372742096689</v>
+        <v>17.14854415689469</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.112007652645254</v>
+        <v>3.800730970655362</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.02422841047955</v>
+        <v>57.88625328540638</v>
       </c>
       <c r="J24">
-        <v>6.258486168335156</v>
+        <v>9.702028588000845</v>
       </c>
       <c r="K24">
-        <v>16.37418412502023</v>
+        <v>18.87802242256383</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.06193113441821</v>
+        <v>15.54114737017377</v>
       </c>
       <c r="C25">
-        <v>20.78748442753416</v>
+        <v>18.83211111636197</v>
       </c>
       <c r="D25">
-        <v>12.78846557216047</v>
+        <v>15.56814340613381</v>
       </c>
       <c r="E25">
-        <v>13.82990105542771</v>
+        <v>17.03945459804187</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.141705627705081</v>
+        <v>3.808742395717915</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.28664908453212</v>
+        <v>55.42572228450435</v>
       </c>
       <c r="J25">
-        <v>6.087000377459852</v>
+        <v>9.720788706449493</v>
       </c>
       <c r="K25">
-        <v>14.85966361015979</v>
+        <v>18.82499285460029</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.62068945992989</v>
+        <v>10.81815426197769</v>
       </c>
       <c r="C2">
-        <v>18.44807086640716</v>
+        <v>19.2529772630714</v>
       </c>
       <c r="D2">
-        <v>15.49919720907028</v>
+        <v>12.07278744326061</v>
       </c>
       <c r="E2">
-        <v>16.97211816502823</v>
+        <v>13.07021351428651</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.815075401916696</v>
+        <v>2.163474928838721</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>53.53622640527481</v>
+        <v>66.13994048946856</v>
       </c>
       <c r="J2">
-        <v>9.739729812649351</v>
+        <v>5.977531913296228</v>
       </c>
       <c r="K2">
-        <v>18.8075060075755</v>
+        <v>13.93262374170243</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.69083141230107</v>
+        <v>10.13785474282051</v>
       </c>
       <c r="C3">
-        <v>18.19091245392739</v>
+        <v>18.18595200339547</v>
       </c>
       <c r="D3">
-        <v>15.45990632205511</v>
+        <v>11.59469713587889</v>
       </c>
       <c r="E3">
-        <v>16.93466489763113</v>
+        <v>12.56440595106219</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.819641744356343</v>
+        <v>2.178344354778114</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>52.2121847377158</v>
+        <v>62.52571259960564</v>
       </c>
       <c r="J3">
-        <v>9.755754977490245</v>
+        <v>5.912562244228373</v>
       </c>
       <c r="K3">
-        <v>18.80905440865423</v>
+        <v>13.32330002121781</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74179337013751</v>
+        <v>9.813612749829696</v>
       </c>
       <c r="C4">
-        <v>18.03497958851263</v>
+        <v>17.51759726156925</v>
       </c>
       <c r="D4">
-        <v>15.43947277559551</v>
+        <v>11.3046362280549</v>
       </c>
       <c r="E4">
-        <v>16.91572328343193</v>
+        <v>12.25831487046184</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.822582002164648</v>
+        <v>2.187579705158295</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>51.37963797142439</v>
+        <v>60.24292258137442</v>
       </c>
       <c r="J4">
-        <v>9.767163624891609</v>
+        <v>5.876861931442996</v>
       </c>
       <c r="K4">
-        <v>18.81658669937464</v>
+        <v>12.95847703846085</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.76452835703656</v>
+        <v>9.685435346020796</v>
       </c>
       <c r="C5">
-        <v>17.97199442045404</v>
+        <v>17.24202602711156</v>
       </c>
       <c r="D5">
-        <v>15.43207723706962</v>
+        <v>11.18735422749936</v>
       </c>
       <c r="E5">
-        <v>16.90902644637945</v>
+        <v>12.13474263876461</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.823814668618487</v>
+        <v>2.191375983055014</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>51.03575159112155</v>
+        <v>59.29668209456573</v>
       </c>
       <c r="J5">
-        <v>9.772206775247309</v>
+        <v>5.863319683336182</v>
       </c>
       <c r="K5">
-        <v>18.82130614211048</v>
+        <v>12.81219033852815</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.76842179295386</v>
+        <v>9.664392019037029</v>
       </c>
       <c r="C6">
-        <v>17.96157140660948</v>
+        <v>17.1960782391814</v>
       </c>
       <c r="D6">
-        <v>15.43090553441075</v>
+        <v>11.16793692183724</v>
       </c>
       <c r="E6">
-        <v>16.90797622098617</v>
+        <v>12.11429529736336</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.824021439652549</v>
+        <v>2.192008503640631</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>50.97837999158762</v>
+        <v>59.13859837777697</v>
       </c>
       <c r="J6">
-        <v>9.773067968735061</v>
+        <v>5.861130415193656</v>
       </c>
       <c r="K6">
-        <v>18.82218928461571</v>
+        <v>12.78804523749043</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74209203917855</v>
+        <v>9.811868024545431</v>
       </c>
       <c r="C7">
-        <v>18.03412780106391</v>
+        <v>17.51389361840053</v>
       </c>
       <c r="D7">
-        <v>15.43936926253708</v>
+        <v>11.30305072214123</v>
       </c>
       <c r="E7">
-        <v>16.91562882691037</v>
+        <v>12.25664355961832</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.822598486481352</v>
+        <v>2.1876307624907</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>51.37501847433804</v>
+        <v>60.23022581010314</v>
       </c>
       <c r="J7">
-        <v>9.767230043877241</v>
+        <v>5.876675284100353</v>
       </c>
       <c r="K7">
-        <v>18.81664367427357</v>
+        <v>12.95649444207003</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.64322556626647</v>
+        <v>10.52311434233939</v>
       </c>
       <c r="C8">
-        <v>18.35903442450615</v>
+        <v>18.88784702855113</v>
       </c>
       <c r="D8">
-        <v>15.4848857354796</v>
+        <v>11.90723553553294</v>
       </c>
       <c r="E8">
-        <v>16.95836441313256</v>
+        <v>12.89489550662996</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.816621643177129</v>
+        <v>2.168584025652984</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>53.0839389111492</v>
+        <v>64.90691214124502</v>
       </c>
       <c r="J8">
-        <v>9.744929303187858</v>
+        <v>5.954230416689745</v>
       </c>
       <c r="K8">
-        <v>18.80667125764428</v>
+        <v>13.72061139478455</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.51273517221979</v>
+        <v>12.62356843738988</v>
       </c>
       <c r="C9">
-        <v>19.00886418321134</v>
+        <v>21.47685325296529</v>
       </c>
       <c r="D9">
-        <v>15.60325605605296</v>
+        <v>13.11944726767685</v>
       </c>
       <c r="E9">
-        <v>17.07419717179128</v>
+        <v>14.18210816891882</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.805976751331427</v>
+        <v>2.131743583022371</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>56.26726507193784</v>
+        <v>73.58318105029808</v>
       </c>
       <c r="J9">
-        <v>9.713671445488929</v>
+        <v>6.141969373144046</v>
       </c>
       <c r="K9">
-        <v>18.83950364545992</v>
+        <v>15.29341860783452</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.45646574007272</v>
+        <v>14.13793328671618</v>
       </c>
       <c r="C10">
-        <v>19.49015122788628</v>
+        <v>23.32039136136402</v>
       </c>
       <c r="D10">
-        <v>15.70768026741745</v>
+        <v>14.02946881324555</v>
       </c>
       <c r="E10">
-        <v>17.17857422509169</v>
+        <v>15.15290727969745</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.798801274727817</v>
+        <v>2.104448987468179</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>58.48837945178165</v>
+        <v>79.68732566516455</v>
       </c>
       <c r="J10">
-        <v>9.698342001938389</v>
+        <v>6.30547764683753</v>
       </c>
       <c r="K10">
-        <v>18.89570583297352</v>
+        <v>16.82776825016031</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.43965048201046</v>
+        <v>14.8261793280771</v>
       </c>
       <c r="C11">
-        <v>19.70912537892671</v>
+        <v>24.1495187465196</v>
       </c>
       <c r="D11">
-        <v>15.75889601959027</v>
+        <v>14.4493274665889</v>
       </c>
       <c r="E11">
-        <v>17.2301707506362</v>
+        <v>15.60187662406584</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.795674841579951</v>
+        <v>2.091831614769992</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>59.47042043236833</v>
+        <v>82.41773105809494</v>
       </c>
       <c r="J11">
-        <v>9.693032209360785</v>
+        <v>6.386468982622152</v>
       </c>
       <c r="K11">
-        <v>18.92824135224922</v>
+        <v>17.57387860132578</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.43455913759073</v>
+        <v>15.08733527092211</v>
       </c>
       <c r="C12">
-        <v>19.79198359556193</v>
+        <v>24.46253523978073</v>
       </c>
       <c r="D12">
-        <v>15.77881574409916</v>
+        <v>14.60939074279737</v>
       </c>
       <c r="E12">
-        <v>17.25029304949333</v>
+        <v>15.77320094487413</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.794510572225745</v>
+        <v>2.087009110593959</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>59.83800395372939</v>
+        <v>83.44642840929608</v>
       </c>
       <c r="J12">
-        <v>9.691261148476142</v>
+        <v>6.418198444019087</v>
       </c>
       <c r="K12">
-        <v>18.94156155901364</v>
+        <v>17.85552592421516</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.43559868946393</v>
+        <v>15.03105536217582</v>
       </c>
       <c r="C13">
-        <v>19.77414243295896</v>
+        <v>24.39515602201161</v>
       </c>
       <c r="D13">
-        <v>15.77450244944952</v>
+        <v>14.57486605355605</v>
       </c>
       <c r="E13">
-        <v>17.24593352211513</v>
+        <v>15.73623990352821</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.794760447415964</v>
+        <v>2.088049990887429</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>59.75903249189793</v>
+        <v>83.22508643450146</v>
       </c>
       <c r="J13">
-        <v>9.691631913927544</v>
+        <v>6.411315810153924</v>
       </c>
       <c r="K13">
-        <v>18.93864840506705</v>
+        <v>17.7948969752951</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43920596438345</v>
+        <v>14.84764998342266</v>
       </c>
       <c r="C14">
-        <v>19.71594380784711</v>
+        <v>24.17528711484918</v>
       </c>
       <c r="D14">
-        <v>15.76052434815777</v>
+        <v>14.46247288536808</v>
       </c>
       <c r="E14">
-        <v>17.23181457209483</v>
+        <v>15.61594355113674</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.795578663693456</v>
+        <v>2.091435859367779</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>59.50074898250226</v>
+        <v>82.50245819850366</v>
       </c>
       <c r="J14">
-        <v>9.69288169814123</v>
+        <v>6.389057435718065</v>
       </c>
       <c r="K14">
-        <v>18.92931719679597</v>
+        <v>17.59706390615949</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.44158210266124</v>
+        <v>14.73539938311395</v>
       </c>
       <c r="C15">
-        <v>19.68028535237347</v>
+        <v>24.04050109871899</v>
       </c>
       <c r="D15">
-        <v>15.75203051956144</v>
+        <v>14.39377657913706</v>
       </c>
       <c r="E15">
-        <v>17.22324208810355</v>
+        <v>15.54243818870098</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.796082398075858</v>
+        <v>2.093503475374229</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>59.3419775565697</v>
+        <v>82.05919315954986</v>
       </c>
       <c r="J15">
-        <v>9.693678446955403</v>
+        <v>6.375565191236757</v>
       </c>
       <c r="K15">
-        <v>18.92373165863147</v>
+        <v>17.4757891921002</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.45774254625863</v>
+        <v>14.09299179341505</v>
       </c>
       <c r="C16">
-        <v>19.47583563515181</v>
+        <v>23.26604671982821</v>
       </c>
       <c r="D16">
-        <v>15.70440720257568</v>
+        <v>14.00216588187236</v>
       </c>
       <c r="E16">
-        <v>17.17528441735964</v>
+        <v>15.12373346385759</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.799008352072188</v>
+        <v>2.105268249379456</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>58.42361122646348</v>
+        <v>79.50806652404441</v>
       </c>
       <c r="J16">
-        <v>9.698722522526092</v>
+        <v>6.300326524588526</v>
       </c>
       <c r="K16">
-        <v>18.89371961883971</v>
+        <v>16.77884940088495</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.46991565824714</v>
+        <v>13.69912847172913</v>
       </c>
       <c r="C17">
-        <v>19.35037259837198</v>
+        <v>22.78876012146521</v>
       </c>
       <c r="D17">
-        <v>15.6761369943233</v>
+        <v>13.76356766537413</v>
       </c>
       <c r="E17">
-        <v>17.14691251753719</v>
+        <v>14.86890539395928</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.800838490176573</v>
+        <v>2.112423889299132</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>57.85280051917253</v>
+        <v>77.93204298029832</v>
       </c>
       <c r="J17">
-        <v>9.702243307970216</v>
+        <v>6.255934097986546</v>
       </c>
       <c r="K17">
-        <v>18.87709184167425</v>
+        <v>16.34905836917821</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.47774318957311</v>
+        <v>13.47248233086609</v>
       </c>
       <c r="C18">
-        <v>19.27821674395109</v>
+        <v>22.51331058629697</v>
       </c>
       <c r="D18">
-        <v>15.660226730031</v>
+        <v>13.62686820949975</v>
       </c>
       <c r="E18">
-        <v>17.13098159304655</v>
+        <v>14.72300658544831</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.801904110450415</v>
+        <v>2.116521814336923</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>57.52182809256835</v>
+        <v>77.02108202041066</v>
       </c>
       <c r="J18">
-        <v>9.704424939547925</v>
+        <v>6.23101529434881</v>
       </c>
       <c r="K18">
-        <v>18.86818416151935</v>
+        <v>16.1008523024657</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.48053487396531</v>
+        <v>13.39570893411972</v>
       </c>
       <c r="C19">
-        <v>19.25378932561111</v>
+        <v>22.4198785309788</v>
       </c>
       <c r="D19">
-        <v>15.65490014654833</v>
+        <v>13.5806706273379</v>
       </c>
       <c r="E19">
-        <v>17.12565449428308</v>
+        <v>14.67371685742579</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.802267144257793</v>
+        <v>2.117906670717306</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>57.40931705633777</v>
+        <v>76.711840685262</v>
       </c>
       <c r="J19">
-        <v>9.705190480021479</v>
+        <v>6.222680790378837</v>
       </c>
       <c r="K19">
-        <v>18.86528092287064</v>
+        <v>16.016626431284</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.46853423333499</v>
+        <v>13.74106285502267</v>
       </c>
       <c r="C20">
-        <v>19.36372810537557</v>
+        <v>22.83966147361781</v>
       </c>
       <c r="D20">
-        <v>15.67911023993459</v>
+        <v>13.7889100170718</v>
       </c>
       <c r="E20">
-        <v>17.14989266900694</v>
+        <v>14.89596123337426</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.800642327342259</v>
+        <v>2.111664106151174</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>57.91384093458307</v>
+        <v>78.10026731915119</v>
       </c>
       <c r="J20">
-        <v>9.701852306929945</v>
+        <v>6.260595424166008</v>
       </c>
       <c r="K20">
-        <v>18.87879399795017</v>
+        <v>16.39491025046444</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.43811168343516</v>
+        <v>14.90150038991281</v>
       </c>
       <c r="C21">
-        <v>19.73304038107006</v>
+        <v>24.23988992589214</v>
       </c>
       <c r="D21">
-        <v>15.7646158666362</v>
+        <v>14.49545416400747</v>
       </c>
       <c r="E21">
-        <v>17.23594587267248</v>
+        <v>15.65123948366443</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.795337801925462</v>
+        <v>2.090442698825169</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>59.57673128180143</v>
+        <v>82.71484071327335</v>
       </c>
       <c r="J21">
-        <v>9.692508099356974</v>
+        <v>6.395565510702323</v>
       </c>
       <c r="K21">
-        <v>18.93203089316607</v>
+        <v>17.65519110354833</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.42567291850795</v>
+        <v>15.6634247850665</v>
       </c>
       <c r="C22">
-        <v>19.97401278945157</v>
+        <v>25.14974336482612</v>
       </c>
       <c r="D22">
-        <v>15.82355686751295</v>
+        <v>14.96364042347577</v>
       </c>
       <c r="E22">
-        <v>17.29558526540625</v>
+        <v>16.15267957173813</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.791985407035636</v>
+        <v>2.076303627917985</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>60.63840995857055</v>
+        <v>85.7011086109588</v>
       </c>
       <c r="J22">
-        <v>9.687798095062915</v>
+        <v>6.490022556227151</v>
       </c>
       <c r="K22">
-        <v>18.97264925062665</v>
+        <v>18.47405166460212</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.43162649356003</v>
+        <v>15.25620095826866</v>
       </c>
       <c r="C23">
-        <v>19.84545919271981</v>
+        <v>24.66444696026759</v>
       </c>
       <c r="D23">
-        <v>15.79182212454638</v>
+        <v>14.7130751860208</v>
       </c>
       <c r="E23">
-        <v>17.2634464544252</v>
+        <v>15.88422644181371</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.7937642275455</v>
+        <v>2.083880670223021</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>60.07413685506896</v>
+        <v>84.10941224143961</v>
       </c>
       <c r="J23">
-        <v>9.69018396614282</v>
+        <v>6.438994976473252</v>
       </c>
       <c r="K23">
-        <v>18.95043864439678</v>
+        <v>18.03722190985577</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.46915619427085</v>
+        <v>13.72210501604387</v>
       </c>
       <c r="C24">
-        <v>19.35769015489709</v>
+        <v>22.81665227549662</v>
       </c>
       <c r="D24">
-        <v>15.67776496766912</v>
+        <v>13.7774512798324</v>
       </c>
       <c r="E24">
-        <v>17.14854415689469</v>
+        <v>14.88372742096686</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.800730970655362</v>
+        <v>2.112007652645115</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>57.88625328540638</v>
+        <v>78.02422841047978</v>
       </c>
       <c r="J24">
-        <v>9.702028588000845</v>
+        <v>6.258486168335148</v>
       </c>
       <c r="K24">
-        <v>18.87802242256383</v>
+        <v>16.37418412502019</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.54114737017377</v>
+        <v>12.0619311344183</v>
       </c>
       <c r="C25">
-        <v>18.83211111636197</v>
+        <v>20.78748442753434</v>
       </c>
       <c r="D25">
-        <v>15.56814340613381</v>
+        <v>12.78846557216051</v>
       </c>
       <c r="E25">
-        <v>17.03945459804187</v>
+        <v>13.82990105542774</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.808742395717915</v>
+        <v>2.141705627704854</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>55.42572228450435</v>
+        <v>71.28664908453388</v>
       </c>
       <c r="J25">
-        <v>9.720788706449493</v>
+        <v>6.087000377459829</v>
       </c>
       <c r="K25">
-        <v>18.82499285460029</v>
+        <v>14.85966361015979</v>
       </c>
       <c r="L25">
         <v>0</v>
